--- a/Modelos em Python/7_Erros_treino.xlsx
+++ b/Modelos em Python/7_Erros_treino.xlsx
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.278014701567448</v>
+        <v>5.404658832445429</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3522995084959126</v>
+        <v>0.36147444844235</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1368997236260622</v>
+        <v>0.1401390396161988</v>
       </c>
     </row>
     <row r="8">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.757862151552724</v>
+        <v>5.761535227563424</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3790075395303305</v>
+        <v>0.3793186050265972</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1498820447750923</v>
+        <v>0.1500940540630794</v>
       </c>
     </row>
     <row r="10">

--- a/Modelos em Python/7_Erros_treino.xlsx
+++ b/Modelos em Python/7_Erros_treino.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>Decision Tree Regressor</t>
         </is>
       </c>
       <c r="B10" t="n">

--- a/Modelos em Python/7_Erros_treino.xlsx
+++ b/Modelos em Python/7_Erros_treino.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.458395435432936</v>
+        <v>9.970419298697985</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2960551425217799</v>
+        <v>0.6402268294238953</v>
       </c>
       <c r="D2" t="n">
-        <v>0.114093183914307</v>
+        <v>0.2328066932825519</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.736830488432433</v>
+        <v>10.02432998202993</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3769726491120525</v>
+        <v>0.6428223091947503</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1499700810887689</v>
+        <v>0.2309658458882339</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.946660092953823</v>
+        <v>9.698926905815474</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3294329563193344</v>
+        <v>0.6247114063046482</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1269707680736741</v>
+        <v>0.2267415555433872</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.844145367675937</v>
+        <v>9.976660399830099</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3225484432146881</v>
+        <v>0.6406163188493323</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1230553986292959</v>
+        <v>0.2328721093284806</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.125843541215533</v>
+        <v>9.971532263274552</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3418864876935661</v>
+        <v>0.6403434648243312</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1323989443678832</v>
+        <v>0.2325459056724141</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.404658832445429</v>
+        <v>10.04651251550967</v>
       </c>
       <c r="C7" t="n">
-        <v>0.36147444844235</v>
+        <v>0.6448117186186271</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1401390396161988</v>
+        <v>0.2323450795469171</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.758585872263859</v>
+        <v>9.890566077029368</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3787816943095043</v>
+        <v>0.6336682944187209</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1500566309775828</v>
+        <v>0.2283885747315056</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.761535227563424</v>
+        <v>9.975893931040476</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3793186050265972</v>
+        <v>0.6396381382099413</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1500940540630794</v>
+        <v>0.2305052647513949</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.97966703448636</v>
+        <v>6.844051878512294</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4269645194056881</v>
+        <v>0.5770060092793938</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1146191915947487</v>
+        <v>0.1645375572346129</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.558691389462499</v>
+        <v>12.50903037508974</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7082334114933384</v>
+        <v>0.9159797526074096</v>
       </c>
       <c r="D11" t="n">
-        <v>0.235461928260638</v>
+        <v>0.3268913956490141</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.771096015804538</v>
+        <v>12.96307819894625</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7264007388922437</v>
+        <v>0.9576634649434869</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2398050172732553</v>
+        <v>0.3365623691345309</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.117092615669071</v>
+        <v>9.227418865621519</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6767417848678565</v>
+        <v>0.6422609209294532</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2046919978940362</v>
+        <v>0.2073114197835011</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/7_Erros_treino.xlsx
+++ b/Modelos em Python/7_Erros_treino.xlsx
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.844051878512294</v>
+        <v>6.98688636014879</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5770060092793938</v>
+        <v>0.5892677077048385</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1645375572346129</v>
+        <v>0.1647632080170712</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.50903037508974</v>
+        <v>12.29829163968287</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9159797526074096</v>
+        <v>0.8969085843049862</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3268913956490141</v>
+        <v>0.322557995971857</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12.96307819894625</v>
+        <v>12.66966958232521</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9576634649434869</v>
+        <v>0.9306292038363824</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3365623691345309</v>
+        <v>0.3300534774536775</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.227418865621519</v>
+        <v>9.27364970360299</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6422609209294532</v>
+        <v>0.646240030457338</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2073114197835011</v>
+        <v>0.2080109781207875</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/7_Erros_treino.xlsx
+++ b/Modelos em Python/7_Erros_treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.33286498450064</v>
+        <v>12.33882980785134</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9000252121398179</v>
+        <v>0.9005627316079999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3232482314869321</v>
+        <v>0.3233676735590305</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/7_Erros_treino.xlsx
+++ b/Modelos em Python/7_Erros_treino.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Decision Tree Regressor</t>
+          <t>DTR</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,17 +597,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Random Forest Regressor</t>
+          <t>RFR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.33882980785134</v>
+        <v>12.31547544052052</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9005627316079999</v>
+        <v>0.8984561610178218</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3233676735590305</v>
+        <v>0.3229003760864558</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/7_Erros_treino.xlsx
+++ b/Modelos em Python/7_Erros_treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.31547544052052</v>
+        <v>12.30138743400818</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8984561610178218</v>
+        <v>0.8971925396321169</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3229003760864558</v>
+        <v>0.3226470470455731</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/7_Erros_treino.xlsx
+++ b/Modelos em Python/7_Erros_treino.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DTR</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,17 +597,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RFR</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.30138743400818</v>
+        <v>12.31284001164467</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8971925396321169</v>
+        <v>0.8982067294930961</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3226470470455731</v>
+        <v>0.3227915625213607</v>
       </c>
     </row>
     <row r="12">
@@ -629,7 +629,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LGBMRegressor</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/Modelos em Python/7_Erros_treino.xlsx
+++ b/Modelos em Python/7_Erros_treino.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.970419298697985</v>
+        <v>9.989745380457569</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6402268294238953</v>
+        <v>0.6417477890788938</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2328066932825519</v>
+        <v>0.2332128063788237</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.0656503141359</v>
+        <v>10.04808755639141</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6456803163396529</v>
+        <v>0.6445666971212449</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2323692423137177</v>
+        <v>0.2320602773071815</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.698926905815474</v>
+        <v>8.303220994041137</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6247114063046482</v>
+        <v>0.5444695792030693</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2267415555433872</v>
+        <v>0.1898302371145222</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.976660399830099</v>
+        <v>9.976103116018443</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6406163188493323</v>
+        <v>0.640865742110284</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2328721093284806</v>
+        <v>0.2328811982526366</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.971532263274552</v>
+        <v>9.972497038011815</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6403434648243312</v>
+        <v>0.6404051980895623</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2325459056724141</v>
+        <v>0.2326170818744958</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.04651251550967</v>
+        <v>9.941960221818272</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6448117186186271</v>
+        <v>0.6392122729063879</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2323450795469171</v>
+        <v>0.2315987882012281</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.12565718860544</v>
+        <v>10.04246818684062</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6482864223381067</v>
+        <v>0.6434933813622963</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2339099138319878</v>
+        <v>0.2320280388488663</v>
       </c>
     </row>
     <row r="9">
@@ -569,19 +569,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.990243612390518</v>
+        <v>10.05645728188995</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6400636255732898</v>
+        <v>0.6440340736233369</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2307527796081143</v>
+        <v>0.2322019461237423</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>DTR</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,17 +597,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>RFR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.31284001164467</v>
+        <v>12.38242801927282</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8982067294930961</v>
+        <v>0.9045049090962284</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3227915625213607</v>
+        <v>0.3242591760244356</v>
       </c>
     </row>
     <row r="12">
@@ -617,19 +617,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12.68496368882558</v>
+        <v>12.79097075261218</v>
       </c>
       <c r="C12" t="n">
-        <v>0.932082795745686</v>
+        <v>0.9418994807621143</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3306821386201338</v>
+        <v>0.3331450206363718</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>LGBMRegressor</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/Modelos em Python/7_Erros_treino.xlsx
+++ b/Modelos em Python/7_Erros_treino.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.989745380457569</v>
+        <v>19.98675562157002</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6417477890788938</v>
+        <v>0.6421183283482192</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2332128063788237</v>
+        <v>0.2332003457165541</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.04808755639141</v>
+        <v>20.07545534511528</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6445666971212449</v>
+        <v>0.6438705786380702</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2320602773071815</v>
+        <v>0.2318013116681518</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.303220994041137</v>
+        <v>18.3438018844752</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5444695792030693</v>
+        <v>0.5952432575095367</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1898302371145222</v>
+        <v>0.2128785584503074</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.976103116018443</v>
+        <v>20.00736111822833</v>
       </c>
       <c r="C5" t="n">
-        <v>0.640865742110284</v>
+        <v>0.6427340077762412</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2328811982526366</v>
+        <v>0.2334497306990092</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.972497038011815</v>
+        <v>19.93044951813593</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6404051980895623</v>
+        <v>0.639870529091211</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2326170818744958</v>
+        <v>0.2324418391294934</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.941960221818272</v>
+        <v>20.115750919678</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6392122729063879</v>
+        <v>0.6445709540432708</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2315987882012281</v>
+        <v>0.2344985675961665</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.04246818684062</v>
+        <v>20.10188778247645</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6434933813622963</v>
+        <v>0.6440299120243436</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2320280388488663</v>
+        <v>0.2322196450435843</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.05645728188995</v>
+        <v>20.13092542678963</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6440340736233369</v>
+        <v>0.6447121517614146</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2322019461237423</v>
+        <v>0.2326191729557834</v>
       </c>
     </row>
     <row r="10">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.98688636014879</v>
+        <v>13.97377272029755</v>
       </c>
       <c r="C10" t="n">
         <v>0.5892677077048385</v>
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.38242801927282</v>
+        <v>24.71556835474148</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9045049090962284</v>
+        <v>0.9022737322144249</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3242591760244356</v>
+        <v>0.3237442735065799</v>
       </c>
     </row>
     <row r="12">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12.79097075261218</v>
+        <v>25.58194150522435</v>
       </c>
       <c r="C12" t="n">
         <v>0.9418994807621143</v>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.369273820108399</v>
+        <v>18.73854764021679</v>
       </c>
       <c r="C13" t="n">
         <v>0.6513626670740793</v>

--- a/Modelos em Python/7_Erros_treino.xlsx
+++ b/Modelos em Python/7_Erros_treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.24871431350601</v>
+        <v>24.24633868837352</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8812193945961736</v>
+        <v>0.8811131044693309</v>
       </c>
       <c r="D11" t="n">
-        <v>0.318950803653731</v>
+        <v>0.3189312629839666</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/7_Erros_treino.xlsx
+++ b/Modelos em Python/7_Erros_treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.24633868837352</v>
+        <v>24.23637176884694</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8811131044693309</v>
+        <v>0.8806640724337109</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3189312629839666</v>
+        <v>0.318820128575201</v>
       </c>
     </row>
     <row r="12">
